--- a/Texas/WaterAllocation_WaterUse_TCEQ/TCEQwr_Allocation and Water Use Schema Mapping to WaDE.xlsx
+++ b/Texas/WaterAllocation_WaterUse_TCEQ/TCEQwr_Allocation and Water Use Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Texas\SS_DiversionsWithdrawalsWaterUse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Texas\WaterAllocation_WaterUse_TCEQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D551DFF-941A-4E05-B305-21F5BACEE856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBDE8E4-D9E9-4AC6-838B-4392746C1FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="645" activeTab="8" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-28920" yWindow="2475" windowWidth="29040" windowHeight="15720" tabRatio="645" activeTab="6" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -1180,12 +1180,6 @@
     <t>WaterAllocationNativeURL</t>
   </si>
   <si>
-    <t>ex: '"https://gisweb.tceq.texas.gov/WRRetrieveRights/?ID=" + WR_TYPE_NO</t>
-  </si>
-  <si>
-    <t>WR_TYPE_NO</t>
-  </si>
-  <si>
     <t>Refers back to the state URL that describes the water right (e.g., https://www.waterrights.utah.gov/asp_apps/wrprint/wrprint.asp?wrnum=55-12888).</t>
   </si>
   <si>
@@ -1283,6 +1277,12 @@
   </si>
   <si>
     <t>"12",</t>
+  </si>
+  <si>
+    <t>Water Right Type and Number</t>
+  </si>
+  <si>
+    <t>ex: '"https://gisweb.tceq.texas.gov/WRRetrieveRights/?ID=" + Water Right Type and Number</t>
   </si>
 </sst>
 </file>
@@ -2014,9 +2014,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2054,7 +2054,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2160,7 +2160,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2302,7 +2302,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2538,7 +2538,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="118" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G3" s="67" t="s">
         <v>7</v>
@@ -2713,7 +2713,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G8" s="37" t="s">
         <v>7</v>
@@ -2748,7 +2748,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G9" s="37" t="s">
         <v>7</v>
@@ -2783,7 +2783,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G10" s="37" t="s">
         <v>7</v>
@@ -2853,7 +2853,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="119" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G12" s="37" t="s">
         <v>7</v>
@@ -4963,8 +4963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8724B99-AD69-4DBF-8338-B0E3FE02CAE6}">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4975,7 +4975,7 @@
     <col min="4" max="4" width="4.33203125" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="122.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -6385,13 +6385,13 @@
         <v>7</v>
       </c>
       <c r="E46" s="83" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="F46" s="83" t="s">
         <v>281</v>
       </c>
       <c r="G46" s="59" t="s">
-        <v>380</v>
+        <v>412</v>
       </c>
       <c r="H46" s="15" t="s">
         <v>7</v>
@@ -6400,7 +6400,7 @@
         <v>310</v>
       </c>
       <c r="J46" s="66" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -56748,7 +56748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A26DA6-FFEA-403F-8C16-B9588EA712AA}">
   <dimension ref="B4:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V18" sqref="V17:V18"/>
     </sheetView>
   </sheetViews>
@@ -56756,116 +56756,116 @@
   <sheetData>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D4" t="s">
         <v>390</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>391</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>392</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>393</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>394</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>395</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>396</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>397</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>398</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>399</v>
-      </c>
-      <c r="L4" t="s">
-        <v>400</v>
-      </c>
-      <c r="M4" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C5" t="s">
+        <v>401</v>
+      </c>
+      <c r="D5" t="s">
         <v>402</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>403</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>404</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>405</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>406</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>407</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>408</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>409</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>410</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>411</v>
-      </c>
-      <c r="L5" t="s">
-        <v>412</v>
-      </c>
-      <c r="M5" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E6" t="s">
         <v>387</v>
       </c>
-      <c r="C6" t="s">
-        <v>388</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
+        <v>385</v>
+      </c>
+      <c r="G6" t="s">
         <v>387</v>
       </c>
-      <c r="E6" t="s">
-        <v>389</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
+        <v>385</v>
+      </c>
+      <c r="I6" t="s">
+        <v>385</v>
+      </c>
+      <c r="J6" t="s">
         <v>387</v>
       </c>
-      <c r="G6" t="s">
-        <v>389</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="K6" t="s">
+        <v>385</v>
+      </c>
+      <c r="L6" t="s">
         <v>387</v>
       </c>
-      <c r="I6" t="s">
-        <v>387</v>
-      </c>
-      <c r="J6" t="s">
-        <v>389</v>
-      </c>
-      <c r="K6" t="s">
-        <v>387</v>
-      </c>
-      <c r="L6" t="s">
-        <v>389</v>
-      </c>
       <c r="M6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
